--- a/source/doc/Measurements3.xlsx
+++ b/source/doc/Measurements3.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tixo\Work\Tikhomirov2\vi_metrics_time\source\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C991DE7-14C3-4C73-8E0E-00C27440D99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E15F4C-FF94-418F-8E9D-DA29CCBA100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1425" windowWidth="23220" windowHeight="14535" xr2:uid="{6903A03E-33C0-4B35-A37F-433A8AE69AF9}"/>
+    <workbookView xWindow="4020" yWindow="1425" windowWidth="23220" windowHeight="14535" activeTab="1" xr2:uid="{6903A03E-33C0-4B35-A37F-433A8AE69AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Discreteness" sheetId="1" r:id="rId1"/>
     <sheet name="Duration" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Discreteness!$A$1:$H$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Duration!$A$1:$H$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Discreteness!$A$1:$I$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Duration!$A$1:$I$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>&lt;LNX&gt;::clock_gettime(CLOCK_THREAD_CPUTIME_ID)</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>Durations [nanoseconds]</t>
+  </si>
+  <si>
+    <t>i3-4005U@1.70GHz Win</t>
   </si>
 </sst>
 </file>
@@ -220,7 +223,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -266,7 +269,7 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,11 +607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F998BB9-5CA4-486D-8586-D07217056947}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,9 +619,10 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="132" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="132" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>55</v>
       </c>
@@ -626,22 +630,25 @@
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -652,18 +659,21 @@
         <v>6.2</v>
       </c>
       <c r="D2" s="3">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
         <v>6.3</v>
       </c>
-      <c r="E2" s="3">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="H2" s="3">
         <v>12</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="3">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -674,18 +684,21 @@
         <v>9</v>
       </c>
       <c r="D3" s="3">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
         <v>9.5</v>
       </c>
-      <c r="E3" s="3">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="H3" s="3">
         <v>20</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="3">
+        <v>21.200000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -696,56 +709,62 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D4" s="3">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
         <v>12.299999999999999</v>
       </c>
-      <c r="E4" s="3">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="H4" s="3">
         <v>20</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3">
-        <v>13.799999999999999</v>
-      </c>
-      <c r="D5" s="3">
-        <v>12.299999999999999</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3">
-        <v>24</v>
-      </c>
+        <v>18.5</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="C6" s="3">
+        <v>13.799999999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>24</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
-        <v>18.5</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12.299999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -756,18 +775,21 @@
         <v>16.3</v>
       </c>
       <c r="D7" s="3">
+        <v>59.999999999999993</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="E7" s="3">
-        <v>59.999999999999993</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="H7" s="3">
         <v>38</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="3">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -778,18 +800,21 @@
         <v>29.2</v>
       </c>
       <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
         <v>29.3</v>
       </c>
-      <c r="E8" s="3">
-        <v>50</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>68</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="3">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -800,18 +825,21 @@
         <v>31.599999999999998</v>
       </c>
       <c r="D9" s="3">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
         <v>32.6</v>
       </c>
-      <c r="E9" s="3">
-        <v>64</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>46</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="3">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -821,19 +849,20 @@
       <c r="C10" s="3">
         <v>20.2</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>24</v>
+      </c>
       <c r="E10" s="3">
-        <v>24</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
         <v>44.4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="F10" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -843,19 +872,20 @@
       <c r="C11" s="3">
         <v>20.599999999999998</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>24</v>
+      </c>
       <c r="E11" s="3">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
         <v>44.4</v>
       </c>
-      <c r="H11" s="3">
+      <c r="F11" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -865,19 +895,20 @@
       <c r="C12" s="3">
         <v>20.8</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>24</v>
+      </c>
       <c r="E12" s="3">
-        <v>24</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
         <v>44.4</v>
       </c>
-      <c r="H12" s="3">
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -887,19 +918,20 @@
       <c r="C13" s="3">
         <v>20.8</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>24</v>
+      </c>
       <c r="E13" s="3">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
         <v>44.6</v>
       </c>
-      <c r="H13" s="3">
+      <c r="F13" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -909,19 +941,20 @@
       <c r="C14" s="3">
         <v>20.8</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>26</v>
+      </c>
       <c r="E14" s="3">
-        <v>26</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
         <v>44.4</v>
       </c>
-      <c r="H14" s="3">
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -932,22 +965,25 @@
         <v>21.6</v>
       </c>
       <c r="D15" s="3">
+        <v>24</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44.4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
-        <v>24</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>44.4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -958,22 +994,25 @@
         <v>20.400000000000002</v>
       </c>
       <c r="D16" s="3">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3">
+        <v>44.4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G16" s="3">
         <v>100</v>
       </c>
-      <c r="E16" s="3">
-        <v>24</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="H16" s="3">
         <v>100</v>
       </c>
-      <c r="G16" s="3">
-        <v>44.4</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -984,22 +1023,25 @@
         <v>21.200000000000003</v>
       </c>
       <c r="D17" s="3">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3">
+        <v>44.4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>24</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>44.4</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1010,22 +1052,25 @@
         <v>22.4</v>
       </c>
       <c r="D18" s="3">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3">
+        <v>48</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
-        <v>24</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
-        <v>48</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1033,17 +1078,20 @@
         <v>28</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
         <v>100</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3">
+      <c r="H19" s="3">
         <v>100</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1051,17 +1099,20 @@
         <v>36</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1069,17 +1120,20 @@
         <v>37</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1087,17 +1141,20 @@
         <v>44</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1105,17 +1162,20 @@
         <v>34</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
         <v>785</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>128</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1125,19 +1185,20 @@
       <c r="C24" s="3">
         <v>1000</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>1000</v>
+      </c>
       <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1147,19 +1208,20 @@
       <c r="C25" s="3">
         <v>936</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <v>544</v>
+      </c>
       <c r="E25" s="3">
-        <v>544</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3">
         <v>748</v>
       </c>
-      <c r="H25" s="3">
+      <c r="F25" s="3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1169,19 +1231,20 @@
       <c r="C26" s="3">
         <v>959.99999999999989</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3">
+        <v>588</v>
+      </c>
       <c r="E26" s="3">
-        <v>588</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3">
         <v>770</v>
       </c>
-      <c r="H26" s="3">
+      <c r="F26" s="3">
         <v>6400</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1191,19 +1254,20 @@
       <c r="C27" s="3">
         <v>1000</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3">
+        <v>1000</v>
+      </c>
       <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="F27" s="3">
         <v>7200</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1211,17 +1275,20 @@
         <v>35</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3">
         <v>2200</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3">
+      <c r="H28" s="3">
         <v>3100</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="3">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1232,22 +1299,25 @@
         <v>1000</v>
       </c>
       <c r="D29" s="3">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="E29" s="3">
         <v>1000</v>
       </c>
       <c r="F29" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G29" s="3">
         <v>1000000</v>
       </c>
-      <c r="G29" s="3">
-        <v>1000</v>
-      </c>
       <c r="H29" s="3">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1257,19 +1327,20 @@
       <c r="C30" s="3">
         <v>3200000</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <v>2900000</v>
+      </c>
       <c r="E30" s="3">
-        <v>2900000</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3">
         <v>4000000</v>
       </c>
-      <c r="H30" s="3">
+      <c r="F30" s="3">
         <v>7500000</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1279,19 +1350,20 @@
       <c r="C31" s="3">
         <v>4000000</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3">
+        <v>4000000</v>
+      </c>
       <c r="E31" s="3">
         <v>4000000</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3">
-        <v>4000000</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="F31" s="3">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1301,19 +1373,20 @@
       <c r="C32" s="3">
         <v>4000000</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3">
+        <v>4000000</v>
+      </c>
       <c r="E32" s="3">
         <v>4000000</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3">
-        <v>4000000</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="F32" s="3">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1321,17 +1394,20 @@
         <v>43</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="3">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3">
         <v>9200000</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>7200000</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="3">
+        <v>8600000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1341,19 +1417,20 @@
       <c r="C34" s="3">
         <v>9900000</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3">
+        <v>9900000</v>
+      </c>
       <c r="E34" s="3">
         <v>9900000</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3">
-        <v>9900000</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="F34" s="3">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1363,19 +1440,20 @@
       <c r="C35" s="3">
         <v>10000000</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3">
+        <v>10000000</v>
+      </c>
       <c r="E35" s="3">
         <v>10000000</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3">
+      <c r="F35" s="3">
         <v>10000000</v>
       </c>
-      <c r="H35" s="3">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1383,17 +1461,20 @@
         <v>29</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3">
-        <v>15600000</v>
-      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3">
-        <v>15600000</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="3"/>
+      <c r="G36" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="H36" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="I36" s="3">
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1401,17 +1482,20 @@
         <v>30</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="3">
-        <v>15600000</v>
-      </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3">
-        <v>15600000</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="H37" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="I37" s="3">
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1419,17 +1503,20 @@
         <v>33</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="3">
-        <v>15600000</v>
-      </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3">
-        <v>15600000</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="H38" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="I38" s="3">
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1437,17 +1524,20 @@
         <v>38</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="3">
-        <v>15600000</v>
-      </c>
+      <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3">
-        <v>15600000</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="3"/>
+      <c r="G39" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="H39" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="I39" s="3">
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1455,17 +1545,20 @@
         <v>39</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="3">
-        <v>15600000</v>
-      </c>
+      <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3">
-        <v>15600000</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="3"/>
+      <c r="G40" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="H40" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="I40" s="3">
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1473,17 +1566,20 @@
         <v>40</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="3">
-        <v>15600000</v>
-      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="3">
-        <v>15600000</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="3"/>
+      <c r="G41" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1491,17 +1587,20 @@
         <v>41</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="3">
-        <v>15600000</v>
-      </c>
+      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="3">
-        <v>15600000</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="3"/>
+      <c r="G42" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1509,17 +1608,20 @@
         <v>42</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="3">
-        <v>15600000</v>
-      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="3">
-        <v>15600000</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="3"/>
+      <c r="G43" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1527,17 +1629,20 @@
         <v>45</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="3">
-        <v>15600000</v>
-      </c>
+      <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="3">
-        <v>15600000</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1545,17 +1650,20 @@
         <v>46</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="3">
-        <v>15600000</v>
-      </c>
+      <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="3">
-        <v>15600000</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F45" s="3"/>
+      <c r="G45" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1563,17 +1671,20 @@
         <v>47</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="3">
-        <v>15600000</v>
-      </c>
+      <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="3">
-        <v>15600000</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F46" s="3"/>
+      <c r="G46" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1581,17 +1692,20 @@
         <v>48</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="3">
-        <v>15600000</v>
-      </c>
+      <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="3">
-        <v>15600000</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>15600000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1599,17 +1713,20 @@
         <v>31</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="3">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3">
         <v>1000000000</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1000000000</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="3">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1617,17 +1734,20 @@
         <v>32</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="3">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3">
         <v>1000000000</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1000000000</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="3">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1652,38 +1772,41 @@
       <c r="H50" s="3">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="3">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="F51" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H50" xr:uid="{9F998BB9-5CA4-486D-8586-D07217056947}"/>
+  <autoFilter ref="A1:I50" xr:uid="{9F998BB9-5CA4-486D-8586-D07217056947}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E098ABA-1159-4972-B8C0-8402C60E0640}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="132" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="132" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>56</v>
       </c>
@@ -1691,94 +1814,109 @@
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3">
-        <v>0.67500000000000004</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="H2" s="3">
         <v>1.3</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3">
-        <v>0.73</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
         <v>1.3</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4.3999999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3">
-        <v>0.995</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H4" s="3">
         <v>1.3</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>0.995</v>
+      </c>
+      <c r="H5" s="3">
         <v>1.3</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1786,17 +1924,20 @@
         <v>33</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
         <v>1.2</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
+      <c r="H6" s="3">
         <v>1.8</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="3">
+        <v>14.999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1805,14 +1946,14 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <v>5</v>
-      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1820,17 +1961,20 @@
         <v>45</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
         <v>3.9000000000000004</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6.6000000000000005</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1841,18 +1985,21 @@
         <v>6.4</v>
       </c>
       <c r="D9" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
         <v>6.3</v>
       </c>
-      <c r="E9" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>9.6</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1860,17 +2007,20 @@
         <v>31</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
         <v>7</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>9.4</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1878,123 +2028,141 @@
         <v>32</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
         <v>7</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
+      <c r="H11" s="3">
         <v>9.4</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.9000000000000001</v>
+      </c>
       <c r="D12" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>22</v>
+      </c>
       <c r="F12" s="3">
-        <v>11.700000000000001</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>938</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6.8999999999999995</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="D13" s="3">
-        <v>10.8</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3">
-        <v>14.2</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H13" s="3">
+        <v>18.299999999999997</v>
+      </c>
+      <c r="I13" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D14" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E14" s="3">
-        <v>18</v>
-      </c>
-      <c r="F14" s="3">
-        <v>18.299999999999997</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H14" s="3">
+        <v>11.700000000000001</v>
+      </c>
+      <c r="I14" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3">
-        <v>1.9000000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D15" s="3">
-        <v>6.8999999999999995</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1.9000000000000001</v>
-      </c>
-      <c r="F15" s="3">
-        <v>9.4</v>
-      </c>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="3">
-        <v>22</v>
+        <v>9.6</v>
       </c>
       <c r="H15" s="3">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18.5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="D16" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="E16" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="F16" s="3">
-        <v>18.5</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="H16" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2005,18 +2173,21 @@
         <v>12.2</v>
       </c>
       <c r="D17" s="3">
+        <v>22.9</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
         <v>13.1</v>
       </c>
-      <c r="E17" s="3">
-        <v>22.9</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>23.599999999999998</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2024,17 +2195,20 @@
         <v>36</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
         <v>12.9</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>22.9</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2044,63 +2218,68 @@
       <c r="C19" s="3">
         <v>4.8</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>4.3</v>
+      </c>
       <c r="E19" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
         <v>18.5</v>
       </c>
-      <c r="H19" s="3">
+      <c r="F19" s="3">
         <v>822</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3">
-        <v>17.399999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="D20" s="3">
-        <v>17.2</v>
+        <v>4.3</v>
       </c>
       <c r="E20" s="3">
-        <v>33.200000000000003</v>
+        <v>18.5</v>
       </c>
       <c r="F20" s="3">
-        <v>33.200000000000003</v>
+        <v>898</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3">
-        <v>4.3</v>
-      </c>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D21" s="3">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3">
-        <v>18.5</v>
+        <v>17.2</v>
       </c>
       <c r="H21" s="3">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I21" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2108,53 +2287,62 @@
         <v>37</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
         <v>17.8</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>37.200000000000003</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3">
-        <v>21.1</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3">
-        <v>32.4</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H23" s="3">
+        <v>37.800000000000004</v>
+      </c>
+      <c r="I23" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3">
-        <v>18.399999999999999</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3">
-        <v>37.800000000000004</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>32.4</v>
+      </c>
+      <c r="I24" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2165,18 +2353,21 @@
         <v>29</v>
       </c>
       <c r="D25" s="3">
+        <v>36.599999999999994</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
         <v>29.099999999999998</v>
       </c>
-      <c r="E25" s="3">
-        <v>36.599999999999994</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="H25" s="3">
         <v>37.1</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2187,18 +2378,21 @@
         <v>31</v>
       </c>
       <c r="D26" s="3">
+        <v>41.8</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
         <v>31.8</v>
       </c>
-      <c r="E26" s="3">
-        <v>41.8</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>42.9</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2209,22 +2403,25 @@
         <v>16.600000000000001</v>
       </c>
       <c r="D27" s="3">
+        <v>24.200000000000003</v>
+      </c>
+      <c r="E27" s="3">
+        <v>44.5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G27" s="3">
         <v>15.9</v>
       </c>
-      <c r="E27" s="3">
-        <v>24.200000000000003</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>26.2</v>
       </c>
-      <c r="G27" s="3">
-        <v>44.5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2235,22 +2432,25 @@
         <v>16.3</v>
       </c>
       <c r="D28" s="3">
+        <v>24.3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>50</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G28" s="3">
         <v>15.9</v>
       </c>
-      <c r="E28" s="3">
-        <v>24.3</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="H28" s="3">
         <v>26.400000000000002</v>
       </c>
-      <c r="G28" s="3">
-        <v>50</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2261,22 +2461,25 @@
         <v>16.3</v>
       </c>
       <c r="D29" s="3">
+        <v>24.1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>50.1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G29" s="3">
         <v>20.2</v>
       </c>
-      <c r="E29" s="3">
-        <v>24.1</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>30.2</v>
       </c>
-      <c r="G29" s="3">
-        <v>50.1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2287,172 +2490,184 @@
         <v>16.3</v>
       </c>
       <c r="D30" s="3">
+        <v>23.8</v>
+      </c>
+      <c r="E30" s="3">
+        <v>43.900000000000006</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G30" s="3">
         <v>32.4</v>
       </c>
-      <c r="E30" s="3">
-        <v>23.8</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="H30" s="3">
         <v>41.099999999999994</v>
       </c>
-      <c r="G30" s="3">
-        <v>43.900000000000006</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>16.099999999999998</v>
+      </c>
       <c r="D31" s="3">
-        <v>54</v>
-      </c>
-      <c r="E31" s="3"/>
+        <v>24.1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>43.900000000000006</v>
+      </c>
       <c r="F31" s="3">
-        <v>57.1</v>
+        <v>901</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C32" s="3">
-        <v>16.099999999999998</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>15.5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>23.9</v>
+      </c>
       <c r="E32" s="3">
-        <v>24.1</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3">
-        <v>43.900000000000006</v>
-      </c>
-      <c r="H32" s="3">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42.2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3">
-        <v>15.5</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>15.200000000000001</v>
+      </c>
+      <c r="D33" s="3">
+        <v>23.7</v>
+      </c>
       <c r="E33" s="3">
-        <v>23.9</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3">
-        <v>42.2</v>
-      </c>
-      <c r="H33" s="3">
+        <v>45</v>
+      </c>
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C34" s="3">
         <v>15.200000000000001</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3">
+        <v>23.8</v>
+      </c>
       <c r="E34" s="3">
-        <v>23.7</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3">
         <v>45</v>
       </c>
-      <c r="H34" s="3">
+      <c r="F34" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C35" s="3">
         <v>15.200000000000001</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3">
+        <v>23.7</v>
+      </c>
       <c r="E35" s="3">
-        <v>23.8</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3">
-        <v>45</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44.8</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C36" s="3">
         <v>15.200000000000001</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3">
+        <v>23.9</v>
+      </c>
       <c r="E36" s="3">
-        <v>23.7</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3">
-        <v>44.8</v>
-      </c>
-      <c r="H36" s="3">
+        <v>45</v>
+      </c>
+      <c r="F36" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3">
-        <v>15.200000000000001</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3">
-        <v>23.9</v>
-      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H37" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57.1</v>
+      </c>
+      <c r="I37" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2460,101 +2675,114 @@
         <v>48</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="3">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3">
         <v>77.400000000000006</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3">
+      <c r="H38" s="3">
         <v>93.3</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C39" s="3">
+        <v>956</v>
+      </c>
       <c r="D39" s="3">
-        <v>778</v>
-      </c>
-      <c r="E39" s="3"/>
+        <v>591</v>
+      </c>
+      <c r="E39" s="3">
+        <v>786</v>
+      </c>
       <c r="F39" s="3">
-        <v>128</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6500</v>
+      </c>
+      <c r="G39" s="3">
+        <v>36.4</v>
+      </c>
+      <c r="H39" s="3">
+        <v>31.7</v>
+      </c>
+      <c r="I39" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>766</v>
+      </c>
       <c r="D40" s="3">
-        <v>795</v>
-      </c>
-      <c r="E40" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="E40" s="3">
+        <v>400</v>
+      </c>
       <c r="F40" s="3">
-        <v>134</v>
+        <v>426</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="3">
-        <v>766</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="3">
-        <v>157</v>
-      </c>
+      <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3">
-        <v>400</v>
+        <v>778</v>
       </c>
       <c r="H41" s="3">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="I41" s="3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="3">
-        <v>956</v>
-      </c>
-      <c r="D42" s="3">
-        <v>36.4</v>
-      </c>
-      <c r="E42" s="3">
-        <v>591</v>
-      </c>
-      <c r="F42" s="3">
-        <v>31.7</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
       <c r="G42" s="3">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="H42" s="3">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="I42" s="3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2562,17 +2790,20 @@
         <v>47</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="3">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3">
         <v>831</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>181</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2582,19 +2813,20 @@
       <c r="C44" s="3">
         <v>853</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3">
+        <v>366</v>
+      </c>
       <c r="E44" s="3">
-        <v>366</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3">
         <v>682</v>
       </c>
-      <c r="H44" s="3">
+      <c r="F44" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2604,19 +2836,20 @@
       <c r="C45" s="3">
         <v>938</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3">
+        <v>546</v>
+      </c>
       <c r="E45" s="3">
-        <v>546</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3">
         <v>742</v>
       </c>
-      <c r="H45" s="3">
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2626,19 +2859,20 @@
       <c r="C46" s="3">
         <v>959</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3">
+        <v>585</v>
+      </c>
       <c r="E46" s="3">
-        <v>585</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3">
         <v>780</v>
       </c>
-      <c r="H46" s="3">
+      <c r="F46" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2648,19 +2882,20 @@
       <c r="C47" s="3">
         <v>950</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3">
+        <v>583</v>
+      </c>
       <c r="E47" s="3">
-        <v>583</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3">
         <v>861</v>
       </c>
-      <c r="H47" s="3">
+      <c r="F47" s="3">
         <v>8600</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2670,56 +2905,63 @@
       <c r="C48" s="3">
         <v>1000</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3">
+        <v>711</v>
+      </c>
       <c r="E48" s="3">
-        <v>711</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="F48" s="3">
         <v>6200</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="3">
-        <v>2200</v>
-      </c>
+      <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F49" s="3"/>
+      <c r="G49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="3">
-        <v>2800</v>
-      </c>
+      <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H50" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I50" s="3">
+        <v>8200</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H50" xr:uid="{8E098ABA-1159-4972-B8C0-8402C60E0640}"/>
+  <autoFilter ref="A1:I50" xr:uid="{8E098ABA-1159-4972-B8C0-8402C60E0640}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B46">
     <sortCondition descending="1" ref="B2:B46"/>
   </sortState>
